--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_19 2.类和对象收尾+5.内存管理(1).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_19 2.类和对象收尾+5.内存管理(1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,14 +15,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>构造：C A B D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>析构：B A D C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,15 +70,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>598952</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>75514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1104900"/>
+          <a:ext cx="8980952" cy="5485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>417577</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>94543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952625" y="7639050"/>
+          <a:ext cx="12180952" cy="5657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -100,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -132,9 +241,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +276,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,37 +452,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="W51:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="AA45" sqref="AA45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="51" spans="23:23" x14ac:dyDescent="0.15">
+      <c r="W51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="23:23" x14ac:dyDescent="0.15">
+      <c r="W53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_19 2.类和对象收尾+5.内存管理(1).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_19 2.类和对象收尾+5.内存管理(1).xlsx
@@ -16,13 +16,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>构造：C A B D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>析构：B A D C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原本应该是这样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化之后是这样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个返回值你没用，那编译器就进一步优化，第二个传返回值的拷贝构造也不要了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa是aa2的别名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样写会干扰编译器优化的，不要这样写——主要要掌握这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,6 +211,348 @@
         <a:xfrm>
           <a:off x="1952625" y="7639050"/>
           <a:ext cx="12180952" cy="5657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>665138</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>18562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="14116050"/>
+          <a:ext cx="12895238" cy="3904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>627315</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>170936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="18345150"/>
+          <a:ext cx="10676190" cy="4114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>332118</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>47130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848975" y="23860125"/>
+          <a:ext cx="10057143" cy="3961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>399055</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>151723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="23193375"/>
+          <a:ext cx="7961905" cy="5419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>436615</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>94406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562225" y="30032325"/>
+          <a:ext cx="12276190" cy="6752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>322970</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>133040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="36576000"/>
+          <a:ext cx="7038095" cy="2476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>522756</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>132492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228975" y="39385875"/>
+          <a:ext cx="8952381" cy="6866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>46844</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>66271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="46558200"/>
+          <a:ext cx="6247619" cy="3228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>656087</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>141538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="49968150"/>
+          <a:ext cx="9104762" cy="10695238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -453,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="W51:W53"/>
+  <dimension ref="F51:W348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="AA45" sqref="AA45"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="W325" sqref="W323:W325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -469,6 +867,100 @@
     <row r="53" spans="23:23" x14ac:dyDescent="0.15">
       <c r="W53" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F173" t="s">
+        <v>2</v>
+      </c>
+      <c r="K173" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O280" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R335" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R336" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R337" t="s">
+        <v>9</v>
+      </c>
+      <c r="S337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R338" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R339" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R343" t="s">
+        <v>12</v>
+      </c>
+      <c r="S343" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R344" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R345" t="s">
+        <v>13</v>
+      </c>
+      <c r="S345" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R346" t="s">
+        <v>9</v>
+      </c>
+      <c r="S346" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="347" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R347" t="s">
+        <v>14</v>
+      </c>
+      <c r="S347" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R348" t="s">
+        <v>9</v>
+      </c>
+      <c r="S348" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
